--- a/128extended/source/ways/ways.xlsx
+++ b/128extended/source/ways/ways.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E82954-DAA3-4966-85FF-844F13C7EE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595FFE2-69E7-4F29-A366-A3DAA2821F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,10 +1653,10 @@
   <dimension ref="A1:CS196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8464,6 +8464,9 @@
       <c r="A54" t="s">
         <v>320</v>
       </c>
+      <c r="B54">
+        <v>256</v>
+      </c>
       <c r="C54" t="s">
         <v>312</v>
       </c>

--- a/128extended/source/ways/ways.xlsx
+++ b/128extended/source/ways/ways.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595FFE2-69E7-4F29-A366-A3DAA2821F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6F2B5-4307-40F9-9D4A-81EEA0665BE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="327">
   <si>
     <t>obj</t>
     <phoneticPr fontId="1"/>
@@ -668,12 +668,6 @@
     <t>SIS_E_MG2t2-1_01BF</t>
   </si>
   <si>
-    <t>SIS 高速道路 本線2車線 - 補助1車線 合流</t>
-  </si>
-  <si>
-    <t>SIS 高速道路 本線2車線 - 補助1車線 分岐</t>
-  </si>
-  <si>
     <t>#2to2-1R</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -692,12 +686,6 @@
     <t>SIS_E_MG2t2-1R_01</t>
   </si>
   <si>
-    <t>SIS 高速道路 本線2車線 - 補助1車線 右側分岐</t>
-  </si>
-  <si>
-    <t>SIS 高速道路 本線2車線 - 補助1車線 右側合流</t>
-  </si>
-  <si>
     <t>SIS_E_MG2-2t2_01BF</t>
   </si>
   <si>
@@ -716,12 +704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SIS 高速道路 本線2車線 - 補助2車線 合流</t>
-  </si>
-  <si>
-    <t>SIS 高速道路 本線2車線 - 補助2車線 分岐</t>
-  </si>
-  <si>
     <t>#3t3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -738,12 +720,6 @@
   <si>
     <t>../images/SIS_Expwy_Tram_G_3to3-1_01BF</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SIS 高速道路 本線3車線 - 補助1車線 合流</t>
-  </si>
-  <si>
-    <t>SIS 高速道路 本線3車線 - 補助1車線 分岐</t>
   </si>
   <si>
     <t>ways/dat/SIS_ExpressWay_1-1lane_01_ds_ex.dat</t>
@@ -1090,9 +1066,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>SIS 高速道路 曲面防音壁 透明板仕様 2車線用（奥）</t>
-  </si>
-  <si>
     <t>SIS_E_ROsw2LS_01S_t</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1214,6 +1187,74 @@
   </si>
   <si>
     <t>ways/dat/SIS_LocalStreet_2lane11_ds_ex.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS_E_RG1_01F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 一般道 片側1車線道路（黄線） 地上 単独</t>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 一般道 片側1車線道路（破線） 地上 単独</t>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 市道</t>
+    <rPh sb="4" eb="6">
+      <t>シドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 1車線道路（幅広路肩） 地上 手前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 曲面防音壁 透明板仕様 2車線用（奥）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線2車線 - 補助1車線 合流</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線2車線 - 補助1車線 分岐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線2車線 - 補助2車線 合流</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線2車線 - 補助2車線 分岐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線2車線 - 補助1車線 右側合流</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線2車線 - 補助1車線 右側分岐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線3車線 - 補助1車線 合流</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIS 高速道路 本線3車線 - 補助1車線 分岐</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1653,10 +1694,10 @@
   <dimension ref="A1:CS196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="CM50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="CO66" sqref="CO66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="U1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="V1" t="s">
         <v>14</v>
@@ -1770,7 +1811,7 @@
         <v>94</v>
       </c>
       <c r="Z1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AA1" t="s">
         <v>31</v>
@@ -1782,202 +1823,202 @@
         <v>30</v>
       </c>
       <c r="AD1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL1" t="s">
         <v>214</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" t="s">
         <v>215</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
         <v>216</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>217</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" t="s">
         <v>218</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>219</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AR1" t="s">
         <v>220</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>221</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AT1" t="s">
         <v>222</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AU1" t="s">
         <v>223</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AV1" t="s">
         <v>224</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AW1" t="s">
         <v>225</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AX1" t="s">
         <v>226</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AY1" t="s">
         <v>227</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
         <v>228</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BA1" t="s">
         <v>229</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BB1" t="s">
         <v>230</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BC1" t="s">
         <v>231</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BD1" t="s">
         <v>232</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BE1" t="s">
         <v>233</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BF1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP1" t="s">
         <v>234</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BQ1" t="s">
         <v>235</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BR1" t="s">
         <v>236</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BS1" t="s">
         <v>237</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BT1" t="s">
         <v>238</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BU1" t="s">
         <v>239</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BV1" t="s">
         <v>240</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BW1" t="s">
         <v>241</v>
       </c>
-      <c r="BF1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="BX1" t="s">
         <v>242</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BY1" t="s">
         <v>243</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BZ1" t="s">
         <v>244</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CA1" t="s">
         <v>245</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CB1" t="s">
         <v>246</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CC1" t="s">
         <v>247</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CD1" t="s">
         <v>248</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CE1" t="s">
         <v>249</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CF1" t="s">
         <v>250</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CG1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CH1" t="s">
         <v>252</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CI1" t="s">
         <v>253</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CJ1" t="s">
         <v>254</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CK1" t="s">
         <v>255</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CL1" t="s">
         <v>256</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CM1" t="s">
         <v>257</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CN1" t="s">
         <v>258</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CO1" t="s">
         <v>259</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CP1" t="s">
         <v>260</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CQ1" t="s">
         <v>261</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>262</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>265</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>269</v>
       </c>
       <c r="CR1" t="s">
         <v>38</v>
@@ -1997,10 +2038,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -2042,7 +2083,7 @@
         <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -2951,7 +2992,7 @@
       <c r="CP11" s="2"/>
       <c r="CQ11" s="2"/>
       <c r="CR11" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="CS11" t="s">
         <v>90</v>
@@ -3141,7 +3182,7 @@
       <c r="CP12" s="2"/>
       <c r="CQ12" s="2"/>
       <c r="CR12" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="CS12" t="s">
         <v>97</v>
@@ -3331,7 +3372,7 @@
       <c r="CP13" s="2"/>
       <c r="CQ13" s="2"/>
       <c r="CR13" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="CS13" t="s">
         <v>98</v>
@@ -3838,7 +3879,7 @@
         <v>256</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -3850,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I21" s="6">
         <v>1963</v>
@@ -3886,13 +3927,13 @@
         <v>1</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="6" t="s">
         <v>59</v>
@@ -4017,18 +4058,21 @@
       <c r="CP21" s="2"/>
       <c r="CQ21" s="2"/>
       <c r="CR21" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="CS21" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>312</v>
+      </c>
+      <c r="B22">
+        <v>256</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
         <v>56</v>
@@ -4040,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I22" s="6">
         <v>1963</v>
@@ -4076,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AD22" s="6" t="s">
         <v>59</v>
@@ -4207,10 +4251,10 @@
       <c r="CP22" s="2"/>
       <c r="CQ22" s="2"/>
       <c r="CR22" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="CS22" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:97" x14ac:dyDescent="0.2">
@@ -4218,7 +4262,7 @@
         <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -4230,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I23" s="6">
         <v>1963</v>
@@ -4266,13 +4310,13 @@
         <v>1</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AD23" s="6" t="s">
         <v>59</v>
@@ -4397,10 +4441,10 @@
       <c r="CP23" s="2"/>
       <c r="CQ23" s="2"/>
       <c r="CR23" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CS23" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:97" x14ac:dyDescent="0.2">
@@ -4408,7 +4452,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -4420,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I24" s="6">
         <v>1963</v>
@@ -4456,13 +4500,13 @@
         <v>1</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>59</v>
@@ -4587,21 +4631,18 @@
       <c r="CP24" s="2"/>
       <c r="CQ24" s="2"/>
       <c r="CR24" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="CS24" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
@@ -4613,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I25" s="6">
         <v>1963</v>
@@ -4649,13 +4690,13 @@
         <v>1</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>59</v>
@@ -4780,18 +4821,18 @@
       <c r="CP25" s="2"/>
       <c r="CQ25" s="2"/>
       <c r="CR25" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="CS25" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
@@ -4803,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I26" s="6">
         <v>1963</v>
@@ -4839,13 +4880,13 @@
         <v>1</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AD26" s="6" t="s">
         <v>59</v>
@@ -4970,10 +5011,10 @@
       <c r="CP26" s="2"/>
       <c r="CQ26" s="2"/>
       <c r="CR26" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="CS26" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.2">
@@ -4981,7 +5022,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
@@ -4993,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I27" s="6">
         <v>1963</v>
@@ -5029,13 +5070,13 @@
         <v>1</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AD27" s="6" t="s">
         <v>59</v>
@@ -5160,10 +5201,10 @@
       <c r="CP27" s="2"/>
       <c r="CQ27" s="2"/>
       <c r="CR27" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="CS27" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.2">
@@ -5171,7 +5212,7 @@
         <v>106</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
@@ -5183,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I28" s="6">
         <v>1963</v>
@@ -5219,10 +5260,10 @@
         <v>1</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>58</v>
@@ -5350,10 +5391,10 @@
       <c r="CP28" s="2"/>
       <c r="CQ28" s="2"/>
       <c r="CR28" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="CS28" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.2">
@@ -5361,7 +5402,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
@@ -5373,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I29" s="6">
         <v>1963</v>
@@ -5409,13 +5450,13 @@
         <v>1</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AD29" s="6" t="s">
         <v>59</v>
@@ -5540,10 +5581,10 @@
       <c r="CP29" s="2"/>
       <c r="CQ29" s="2"/>
       <c r="CR29" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="CS29" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:97" x14ac:dyDescent="0.2">
@@ -5551,7 +5592,7 @@
         <v>106</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -5563,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I30" s="6">
         <v>1963</v>
@@ -5599,13 +5640,13 @@
         <v>1</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AD30" s="6" t="s">
         <v>59</v>
@@ -5730,10 +5771,10 @@
       <c r="CP30" s="2"/>
       <c r="CQ30" s="2"/>
       <c r="CR30" s="6" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="CS30" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.2">
@@ -6173,13 +6214,13 @@
     </row>
     <row r="42" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B42">
         <v>256</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="D42" t="s">
         <v>112</v>
@@ -6366,7 +6407,7 @@
     </row>
     <row r="43" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
         <v>116</v>
@@ -6556,7 +6597,7 @@
     </row>
     <row r="44" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
         <v>117</v>
@@ -6746,7 +6787,7 @@
     </row>
     <row r="45" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
         <v>120</v>
@@ -6936,13 +6977,13 @@
     </row>
     <row r="46" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B46">
         <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -6954,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I46">
         <v>1963</v>
@@ -6990,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AB46" s="2" t="s">
         <v>57</v>
@@ -7124,15 +7165,15 @@
         <v>129</v>
       </c>
       <c r="CS46" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
@@ -7144,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I47">
         <v>1963</v>
@@ -7180,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AB47" s="2" t="s">
         <v>57</v>
@@ -7314,15 +7355,15 @@
         <v>130</v>
       </c>
       <c r="CS47" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
         <v>56</v>
@@ -7334,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I48">
         <v>1963</v>
@@ -7370,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AB48" s="2" t="s">
         <v>93</v>
@@ -7504,15 +7545,15 @@
         <v>131</v>
       </c>
       <c r="CS48" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -7524,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I49">
         <v>1963</v>
@@ -7560,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AB49" s="2" t="s">
         <v>93</v>
@@ -7694,12 +7735,12 @@
         <v>132</v>
       </c>
       <c r="CS49" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B50">
         <v>256</v>
@@ -7753,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AB50" s="2" t="s">
         <v>57</v>
@@ -7884,7 +7925,7 @@
       <c r="CP50" s="2"/>
       <c r="CQ50" s="2"/>
       <c r="CR50" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="CS50" t="s">
         <v>122</v>
@@ -7892,7 +7933,7 @@
     </row>
     <row r="51" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
         <v>123</v>
@@ -8082,7 +8123,7 @@
     </row>
     <row r="52" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
         <v>125</v>
@@ -8272,7 +8313,7 @@
     </row>
     <row r="53" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
         <v>128</v>
@@ -8462,13 +8503,13 @@
     </row>
     <row r="54" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B54">
         <v>256</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -8516,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AB54" s="2" t="s">
         <v>57</v>
@@ -8650,15 +8691,15 @@
         <v>133</v>
       </c>
       <c r="CS54" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
@@ -8706,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AB55" s="2" t="s">
         <v>57</v>
@@ -8840,15 +8881,15 @@
         <v>134</v>
       </c>
       <c r="CS55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C56" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D56" t="s">
         <v>56</v>
@@ -8896,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>93</v>
@@ -9030,15 +9071,15 @@
         <v>135</v>
       </c>
       <c r="CS56" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
@@ -9086,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>93</v>
@@ -9220,7 +9261,7 @@
         <v>136</v>
       </c>
       <c r="CS57" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:97" x14ac:dyDescent="0.2">
@@ -9300,7 +9341,7 @@
     </row>
     <row r="60" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B60">
         <v>256</v>
@@ -9493,7 +9534,7 @@
     </row>
     <row r="61" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
         <v>142</v>
@@ -9683,7 +9724,7 @@
     </row>
     <row r="62" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B62">
         <v>256</v>
@@ -9876,7 +9917,7 @@
     </row>
     <row r="63" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
         <v>147</v>
@@ -10066,7 +10107,7 @@
     </row>
     <row r="64" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B64">
         <v>256</v>
@@ -10259,7 +10300,7 @@
     </row>
     <row r="65" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
         <v>151</v>
@@ -10457,7 +10498,7 @@
     </row>
     <row r="67" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B67">
         <v>256</v>
@@ -10642,7 +10683,7 @@
       <c r="CP67" s="2"/>
       <c r="CQ67" s="2"/>
       <c r="CR67" t="s">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="CS67" t="s">
         <v>163</v>
@@ -10650,7 +10691,7 @@
     </row>
     <row r="68" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>164</v>
@@ -10832,7 +10873,7 @@
       <c r="CP68" s="2"/>
       <c r="CQ68" s="2"/>
       <c r="CR68" t="s">
-        <v>166</v>
+        <v>320</v>
       </c>
       <c r="CS68" t="s">
         <v>164</v>
@@ -10840,18 +10881,18 @@
     </row>
     <row r="69" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B70">
         <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
         <v>139</v>
@@ -10899,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="AA70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AB70" s="2" t="s">
         <v>57</v>
@@ -11030,18 +11071,18 @@
       <c r="CP70" s="2"/>
       <c r="CQ70" s="2"/>
       <c r="CR70" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="CS70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
@@ -11089,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="AA71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB71" s="2" t="s">
         <v>57</v>
@@ -11220,15 +11261,15 @@
       <c r="CP71" s="2"/>
       <c r="CQ71" s="2"/>
       <c r="CR71" t="s">
-        <v>172</v>
+        <v>324</v>
       </c>
       <c r="CS71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
@@ -11300,13 +11341,13 @@
     </row>
     <row r="73" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B73">
         <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
         <v>139</v>
@@ -11354,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="AA73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AB73" s="2" t="s">
         <v>57</v>
@@ -11485,18 +11526,18 @@
       <c r="CP73" s="2"/>
       <c r="CQ73" s="2"/>
       <c r="CR73" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="CS73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
         <v>139</v>
@@ -11544,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AA74" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AB74" s="2" t="s">
         <v>57</v>
@@ -11675,15 +11716,15 @@
       <c r="CP74" s="2"/>
       <c r="CQ74" s="2"/>
       <c r="CR74" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="CS74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
@@ -11756,13 +11797,13 @@
     </row>
     <row r="76" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B76">
         <v>256</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
         <v>139</v>
@@ -11810,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="AA76" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB76" s="2" t="s">
         <v>57</v>
@@ -11941,18 +11982,18 @@
       <c r="CP76" s="2"/>
       <c r="CQ76" s="2"/>
       <c r="CR76" t="s">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="CS76" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
         <v>139</v>
@@ -12000,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="AA77" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AB77" s="2" t="s">
         <v>57</v>
@@ -12131,10 +12172,10 @@
       <c r="CP77" s="2"/>
       <c r="CQ77" s="2"/>
       <c r="CR77" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="CS77" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:97" x14ac:dyDescent="0.2">

--- a/128extended/source/ways/ways.xlsx
+++ b/128extended/source/ways/ways.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6F2B5-4307-40F9-9D4A-81EEA0665BE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC199E-5978-43FE-BDF6-947C454A4CCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1694,10 +1694,10 @@
   <dimension ref="A1:CS196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="CM50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CO66" sqref="CO66"/>
+      <selection pane="bottomRight" activeCell="H70" sqref="H70:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="I70">
         <v>1963</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="I71">
         <v>1963</v>
